--- a/template/메인.xlsx
+++ b/template/메인.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12170" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12170"/>
   </bookViews>
   <sheets>
     <sheet name="Digit Span" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <author>GC</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -504,7 +504,7 @@
     <author>GC</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -520,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +610,7 @@
     <author>GC</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -623,120 +623,6 @@
           </rPr>
           <t>No-Go 자극이 제시되었을 때 키보드를 누르지 않은 경우, 
 점수범위 0~10점</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Go에 Go
-총 50점</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">No go </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자극에</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Go </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>한</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (10 - </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>억제점수</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
         </r>
       </text>
     </comment>
@@ -744,118 +630,15 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Go </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자극에</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>반응하지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>않은</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (50 - </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>반응점수</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Go에 Go
+총 50점</t>
         </r>
       </text>
     </comment>
@@ -863,6 +646,223 @@
       <text>
         <r>
           <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">No go </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자극에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Go </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (10 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>억제점수</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Go </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자극에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>반응하지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (50 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>반응점수</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="맑은 고딕"/>
@@ -874,7 +874,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -899,7 +899,7 @@
     <author>GC</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1037,7 +1037,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1053,7 +1053,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1971,10 +1971,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1986,33 +1986,37 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
-      <c r="B2" s="7">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7">
         <f>SUM(F5:F20)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="E2" s="7">
         <f>SUM(E5:E20)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>101</v>
       </c>
@@ -2029,7 +2033,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>106</v>
       </c>
@@ -2040,7 +2044,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>108</v>
       </c>
@@ -2051,7 +2055,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>110</v>
       </c>
@@ -2062,7 +2066,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>112</v>
       </c>
@@ -2073,7 +2077,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>114</v>
       </c>
@@ -2084,7 +2088,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>116</v>
       </c>
@@ -2095,7 +2099,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>118</v>
       </c>
@@ -2106,7 +2110,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>120</v>
       </c>
@@ -2117,7 +2121,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>122</v>
       </c>
@@ -2128,7 +2132,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>124</v>
       </c>
@@ -2139,7 +2143,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>126</v>
       </c>
@@ -2150,7 +2154,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>128</v>
       </c>
@@ -2219,7 +2223,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2236,29 +2240,33 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
-      <c r="B2" s="7">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7">
         <f>SUM(G5:G20)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="E2" s="7">
         <f>SUM(F5:F20)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="10"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
@@ -2504,10 +2512,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2519,45 +2527,49 @@
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6">
-        <f>10-B2</f>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
+        <f>10-D2</f>
         <v>10</v>
       </c>
-      <c r="E2" s="6">
-        <f>50-C2</f>
+      <c r="G2" s="6">
+        <f>50-E2</f>
         <v>50</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -2574,7 +2586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -2583,7 +2595,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -2592,7 +2604,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -2601,7 +2613,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -2610,7 +2622,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -2619,7 +2631,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -2628,7 +2640,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -2637,7 +2649,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -2646,7 +2658,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -2655,7 +2667,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -2664,7 +2676,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -2673,7 +2685,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -3127,16 +3139,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.25" style="9" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.58203125" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
@@ -3150,81 +3162,85 @@
     <col min="13" max="14" width="12.08203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
-      <c r="C2" s="2">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2">
         <f>SUM(D5:D16)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2">
         <f>SUM(D17:D28)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
         <f>SUM(D29:D40)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2">
         <f>SUM(D5:D40)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="2" t="str">
-        <f>IFERROR(AVERAGE(D2,G2,J2),"")</f>
+      <c r="O2" s="2" t="str">
+        <f>IFERROR(AVERAGE(F2,I2,L2),"")</f>
         <v/>
       </c>
-      <c r="N2" s="2" t="str">
-        <f>IFERROR(AVERAGE(E2,H2,K2),"")</f>
+      <c r="P2" s="2" t="str">
+        <f>IFERROR(AVERAGE(G2,J2,M2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -3238,7 +3254,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>60</v>
       </c>
@@ -3246,7 +3262,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
         <v>61</v>
       </c>
@@ -3254,7 +3270,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
         <v>62</v>
       </c>
@@ -3262,7 +3278,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>63</v>
       </c>
@@ -3270,7 +3286,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
         <v>64</v>
       </c>
@@ -3278,7 +3294,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>65</v>
       </c>
@@ -3286,7 +3302,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>66</v>
       </c>
@@ -3294,7 +3310,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
         <v>67</v>
       </c>
@@ -3302,7 +3318,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
         <v>68</v>
       </c>
@@ -3310,7 +3326,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>69</v>
       </c>
@@ -3318,7 +3334,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>70</v>
       </c>
@@ -3326,7 +3342,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
         <v>71</v>
       </c>

--- a/template/메인.xlsx
+++ b/template/메인.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12170" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Digit Span" sheetId="1" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="144">
   <si>
     <t>ID</t>
   </si>
@@ -1545,6 +1545,14 @@
   </si>
   <si>
     <t>무반응</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Family name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1973,8 +1981,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1990,8 +1998,12 @@
       <c r="A1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="D1" s="7" t="s">
         <v>98</v>
       </c>
@@ -2223,7 +2235,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2240,8 +2252,12 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
@@ -2515,7 +2531,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2531,8 +2547,12 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="D1" s="7" t="s">
         <v>96</v>
       </c>
@@ -3141,7 +3161,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -3166,8 +3186,12 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
